--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="22980" windowHeight="9024"/>
+    <workbookView windowWidth="21000" windowHeight="8424"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
     <t>Twitter_ApiKey</t>
   </si>
   <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>Twitter_ApiSecret</t>
+  </si>
+  <si>
     <t>Twitter_AccessToken</t>
   </si>
   <si>
     <t>Twitter_AccessSecret</t>
   </si>
   <si>
-    <t>Twitter_ApiSecret</t>
+    <t>Twitter_Auth</t>
   </si>
   <si>
     <t>Facebook_PageId</t>
@@ -36,55 +51,40 @@
     <t>Facebook_AccessToken</t>
   </si>
   <si>
+    <t>Linkedin_AccessToken</t>
+  </si>
+  <si>
     <t>Linkedin_OrgId</t>
   </si>
   <si>
-    <t>Linkedin_AccessToken</t>
-  </si>
-  <si>
-    <t>Twitter_Auth</t>
+    <t>Facebook_BaseUrl</t>
+  </si>
+  <si>
+    <t>Linkedin_BaseUrl</t>
+  </si>
+  <si>
+    <t>Linkedin_MediaUpload</t>
+  </si>
+  <si>
+    <t>Linkedin_MediaUploadEndpoint</t>
+  </si>
+  <si>
+    <t>Linkedin_ApiVersion</t>
+  </si>
+  <si>
+    <t>LinkedinApi_Version</t>
+  </si>
+  <si>
+    <t>Twitter_MediaApi</t>
+  </si>
+  <si>
+    <t>Twitter_MediaAPI</t>
   </si>
   <si>
     <t>Twitter_BaseUrl</t>
   </si>
   <si>
-    <t>Linkedin_BaseUrl</t>
-  </si>
-  <si>
-    <t>Facebook_BaseUrl</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>Shared</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Linkedin_MediaUpload</t>
-  </si>
-  <si>
-    <t>Linkedin_MediaUploadEndpoint</t>
-  </si>
-  <si>
-    <t>Linkedin_ApiVersion</t>
-  </si>
-  <si>
-    <t>LinkedinApi_Version</t>
-  </si>
-  <si>
-    <t>Twitter_MediaApi</t>
-  </si>
-  <si>
     <t>Twitter_PostEndpoint</t>
-  </si>
-  <si>
-    <t>Twitter_MediaAPI</t>
   </si>
   <si>
     <t>SocialMediaUpdateFilePath</t>
@@ -96,13 +96,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,19 +116,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,18 +473,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -432,81 +1064,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="26.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="21.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -514,109 +1146,109 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -624,76 +1256,76 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
       <c r="C19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -701,10 +1333,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -712,35 +1344,44 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>SocialMediaUpdateExceptionMail</t>
+  </si>
+  <si>
+    <t>Linkedin_Entity</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +116,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -574,148 +570,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1344,6 +1340,17 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8424"/>
+    <workbookView windowWidth="23040" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Twitter_ApiKey</t>
   </si>
   <si>
-    <t>Shared</t>
+    <t>SMBOT_Folder</t>
   </si>
   <si>
     <t>Twitter_ApiSecret</t>
@@ -94,6 +94,49 @@
   </si>
   <si>
     <t>Linkedin_Entity</t>
+  </si>
+  <si>
+    <t>Flickr_PostUrl</t>
+  </si>
+  <si>
+    <t>Flickr_Posturl</t>
+  </si>
+  <si>
+    <t>Flickr_apiKey</t>
+  </si>
+  <si>
+    <t>Flickr_apiSecret</t>
+  </si>
+  <si>
+    <t>Flickr_OAuthToken</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.1"/>
+        <color rgb="FF464E55"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Flickr_OAuthToken</t>
+    </r>
+  </si>
+  <si>
+    <t>Flickr_OAuthSecret</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.1"/>
+        <color rgb="FF464E55"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Flickr_OAuthSecret</t>
+    </r>
+  </si>
+  <si>
+    <t>Flickr_OAuth</t>
   </si>
 </sst>
 </file>
@@ -106,7 +149,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +164,19 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.1"/>
+      <color rgb="FF464E55"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.1"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -585,139 +641,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,16 +1124,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="28.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="26.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="31.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="21.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1351,6 +1409,72 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>Flickr_OAuth</t>
+  </si>
+  <si>
+    <t>WP_Password</t>
+  </si>
+  <si>
+    <t>WP_Username</t>
+  </si>
+  <si>
+    <t>WP_SiteUrl</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1475,6 +1484,39 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024"/>
+    <workbookView windowWidth="11520" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -111,31 +111,9 @@
     <t>Flickr_OAuthToken</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.1"/>
-        <color rgb="FF464E55"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Flickr_OAuthToken</t>
-    </r>
-  </si>
-  <si>
     <t>Flickr_OAuthSecret</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.1"/>
-        <color rgb="FF464E55"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Flickr_OAuthSecret</t>
-    </r>
-  </si>
-  <si>
     <t>Flickr_OAuth</t>
   </si>
   <si>
@@ -146,6 +124,27 @@
   </si>
   <si>
     <t>WP_SiteUrl</t>
+  </si>
+  <si>
+    <t>CloudinaryApiKey</t>
+  </si>
+  <si>
+    <t>CloudinaryApiSecret</t>
+  </si>
+  <si>
+    <t>CloudinaryUploadPreset</t>
+  </si>
+  <si>
+    <t>CloudinaryEndpoint</t>
+  </si>
+  <si>
+    <t>InstagramBaseUrl</t>
+  </si>
+  <si>
+    <t>InstagramAccessToken</t>
+  </si>
+  <si>
+    <t>InstagramPageId</t>
   </si>
 </sst>
 </file>
@@ -158,7 +157,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,16 +175,23 @@
     </font>
     <font>
       <sz val="10.1"/>
-      <color rgb="FF464E55"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.1"/>
-      <color rgb="FF464E55"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -650,141 +656,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1459,7 +1468,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -1467,10 +1476,10 @@
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -1478,10 +1487,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -1489,10 +1498,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1500,10 +1509,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -1511,12 +1520,89 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9024"/>
+    <workbookView windowWidth="23040" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>InstagramPageId</t>
+  </si>
+  <si>
+    <t>CloudName</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1603,6 +1606,17 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,29 +4,161 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8580"/>
+    <workbookView windowWidth="23040" windowHeight="9024" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Assets" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Settings" sheetId="1" r:id="rId1"/>
+    <sheet name="Constants" sheetId="2" r:id="rId2"/>
+    <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+  </si>
+  <si>
+    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+  </si>
+  <si>
+    <t>logF_BusinessProcessName</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
+  </si>
+  <si>
+    <t>EmailCredentials</t>
+  </si>
+  <si>
+    <t>Wp_Credentials</t>
+  </si>
+  <si>
+    <t>MaxRetryNumber</t>
+  </si>
+  <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>ExScreenshotsFolderPath</t>
+  </si>
+  <si>
+    <t>Exceptions_Screenshots</t>
+  </si>
+  <si>
+    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing Transaction Number: </t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionDataError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
+  </si>
+  <si>
+    <t>Static part of logging message. Error retrieving Transaction Data.</t>
+  </si>
+  <si>
+    <t>LogMessage_Success</t>
+  </si>
+  <si>
+    <t>Transaction Successful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>LogMessage_BusinessRuleException</t>
+  </si>
+  <si>
+    <t>Business rule exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>LogMessage_ApplicationException</t>
+  </si>
+  <si>
+    <t>System exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
     <t>Asset</t>
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
+    <t>Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
     <t>Twitter_ApiKey</t>
   </si>
   <si>
@@ -117,13 +249,13 @@
     <t>Flickr_OAuth</t>
   </si>
   <si>
+    <t>WP_SiteUrl</t>
+  </si>
+  <si>
     <t>WP_Password</t>
   </si>
   <si>
     <t>WP_Username</t>
-  </si>
-  <si>
-    <t>WP_SiteUrl</t>
   </si>
   <si>
     <t>CloudinaryApiKey</t>
@@ -160,16 +292,21 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -195,6 +332,11 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -644,28 +786,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,129 +807,144 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,44 +1017,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -939,9 +1087,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -980,160 +1128,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1145,20 +1264,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.4444444444444" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="31.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="21.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="43.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="81.4444444444444" customWidth="1"/>
+    <col min="4" max="26" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,461 +1288,1072 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="28.8" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    </row>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1630,14 +2361,1162 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="14.4444444444444" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="75.4444444444444" customWidth="1"/>
+    <col min="4" max="26" width="8.66666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" ht="28.8" spans="1:3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="28.8" spans="1:3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1646,14 +3525,1466 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="14.4444444444444" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="31.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="30.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="60.3333333333333" customWidth="1"/>
+    <col min="4" max="26" width="65.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,9 @@
     <t>OrchestratorQueueFolder</t>
   </si>
   <si>
+    <t>SMBOT_Folder</t>
+  </si>
+  <si>
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
   </si>
   <si>
@@ -162,9 +165,6 @@
     <t>Twitter_ApiKey</t>
   </si>
   <si>
-    <t>SMBOT_Folder</t>
-  </si>
-  <si>
     <t>Twitter_ApiSecret</t>
   </si>
   <si>
@@ -250,12 +250,6 @@
   </si>
   <si>
     <t>WP_SiteUrl</t>
-  </si>
-  <si>
-    <t>WP_Password</t>
-  </si>
-  <si>
-    <t>WP_Username</t>
   </si>
   <si>
     <t>CloudinaryApiKey</t>
@@ -1266,8 +1260,8 @@
   <sheetPr/>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4444444444444" defaultRowHeight="15" customHeight="1"/>
@@ -1327,37 +1321,40 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="28.8" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1"/>
@@ -2411,138 +2408,138 @@
     </row>
     <row r="2" ht="28.8" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="28.8" spans="1:3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -3525,10 +3522,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4444444444444" defaultRowHeight="15" customHeight="1"/>
@@ -3544,13 +3541,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3577,13 +3574,13 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:3">
@@ -3594,7 +3591,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:3">
@@ -3605,7 +3602,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:3">
@@ -3616,7 +3613,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:3">
@@ -3627,7 +3624,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:3">
@@ -3638,7 +3635,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:3">
@@ -3649,7 +3646,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:3">
@@ -3660,7 +3657,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:3">
@@ -3671,7 +3668,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:3">
@@ -3682,7 +3679,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:3">
@@ -3693,7 +3690,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:3">
@@ -3704,7 +3701,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:3">
@@ -3715,7 +3712,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:3">
@@ -3726,7 +3723,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:3">
@@ -3737,7 +3734,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:3">
@@ -3748,7 +3745,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:3">
@@ -3759,18 +3756,18 @@
         <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:3">
@@ -3781,7 +3778,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:3">
@@ -3792,7 +3789,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:3">
@@ -3803,7 +3800,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:3">
@@ -3814,7 +3811,7 @@
         <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:3">
@@ -3825,7 +3822,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:3">
@@ -3836,7 +3833,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:3">
@@ -3847,7 +3844,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:3">
@@ -3858,7 +3855,7 @@
         <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:3">
@@ -3869,7 +3866,7 @@
         <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:3">
@@ -3880,7 +3877,7 @@
         <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:3">
@@ -3891,7 +3888,7 @@
         <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:3">
@@ -3902,7 +3899,7 @@
         <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:3">
@@ -3913,18 +3910,18 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:3">
@@ -3935,7 +3932,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:3">
@@ -3946,7 +3943,7 @@
         <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:3">
@@ -3957,7 +3954,7 @@
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:3">
@@ -3968,7 +3965,7 @@
         <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:3">
@@ -3979,7 +3976,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:3">
@@ -3990,42 +3987,22 @@
         <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
     <row r="43" ht="14.25" customHeight="1"/>
     <row r="44" ht="14.25" customHeight="1"/>
     <row r="45" ht="14.25" customHeight="1"/>
@@ -4982,8 +4959,6 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -39,7 +39,7 @@
     <t>OrchestratorQueueFolder</t>
   </si>
   <si>
-    <t>SMBOT_Folder</t>
+    <t>Shared</t>
   </si>
   <si>
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4444444444444" defaultRowHeight="15" customHeight="1"/>
@@ -3524,8 +3524,8 @@
   <sheetPr/>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4444444444444" defaultRowHeight="15" customHeight="1"/>
